--- a/medicine/Sexualité et sexologie/Janine_Mossuz-Lavau/Janine_Mossuz-Lavau.xlsx
+++ b/medicine/Sexualité et sexologie/Janine_Mossuz-Lavau/Janine_Mossuz-Lavau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Janine Mossuz-Lavau, née le 9 septembre 1942 à Saint-Jean-de-Tholome (Haute-Savoie), est une politologue et sociologue française.
-Spécialiste d'André Malraux, elle a également travaillé sur la sexualité en France[2].  
+Spécialiste d'André Malraux, elle a également travaillé sur la sexualité en France.  
 </t>
         </is>
       </c>
@@ -514,17 +526,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et études
-Janine Mossuz-Lavau est diplômée de l'Institut d'études politiques de Paris (1963)[3]. 
-Elle est docteur d'État en science politique en 1969, avec une thèse portant sur André Malraux et le gaullisme, dirigée par Jean Touchard[4]. 
+          <t>Jeunesse et études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Janine Mossuz-Lavau est diplômée de l'Institut d'études politiques de Paris (1963). 
+Elle est docteur d'État en science politique en 1969, avec une thèse portant sur André Malraux et le gaullisme, dirigée par Jean Touchard. 
 Veuve de Georges Lavau, elle est mère de deux filles.
-Parcours professionnel
-Au cours de la préparation de sa thèse doctorale, elle est nommée assistante de recherche à la Fondation nationale des sciences politiques (1964), rattachée à l'IEP de Paris. En 1969, une fois son doctorat décerné, elle devient attachée de recherche (1969-1976) puis chargée de recherche (1976-1982).
-Aux côtés d'Alain Lancelot et de Jean-Luc Parodi, elle fait partie d'une jeune génération de chercheurs au sein de Sciences Po qui, influencés par Jean Stoetzel, abordent et construisent le champ académique de la science de l'opinion et de la sociologie électorale[5].
-Elle est directrice de recherche au CNRS et au Centre de recherches politiques de Sciences Po depuis 1982.
-Elle a été membre de l'Association française de science politique (1966-2006), membre du comité éditorial des Presses de Sciences Po, membre de l'Observatoire de la parité entre les femmes et les hommes (1999-2005).
-Engagement politique
-En 2020, elle fait partie des premières personnalités à répondre à l'appel de Laurent Joffrin ayant l'intention de lancer un mouvement pour la « refondation d’une gauche réaliste, réformiste »[6].
 </t>
         </is>
       </c>
@@ -550,10 +560,89 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Parcours professionnel</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours de la préparation de sa thèse doctorale, elle est nommée assistante de recherche à la Fondation nationale des sciences politiques (1964), rattachée à l'IEP de Paris. En 1969, une fois son doctorat décerné, elle devient attachée de recherche (1969-1976) puis chargée de recherche (1976-1982).
+Aux côtés d'Alain Lancelot et de Jean-Luc Parodi, elle fait partie d'une jeune génération de chercheurs au sein de Sciences Po qui, influencés par Jean Stoetzel, abordent et construisent le champ académique de la science de l'opinion et de la sociologie électorale.
+Elle est directrice de recherche au CNRS et au Centre de recherches politiques de Sciences Po depuis 1982.
+Elle a été membre de l'Association française de science politique (1966-2006), membre du comité éditorial des Presses de Sciences Po, membre de l'Observatoire de la parité entre les femmes et les hommes (1999-2005).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Janine_Mossuz-Lavau</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Janine_Mossuz-Lavau</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Engagement politique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2020, elle fait partie des premières personnalités à répondre à l'appel de Laurent Joffrin ayant l'intention de lancer un mouvement pour la « refondation d’une gauche réaliste, réformiste ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Janine_Mossuz-Lavau</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Janine_Mossuz-Lavau</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>André Malraux et le gaullisme, Paris, Presses de la Fondation nationale des sciences politiques, 1970 (rééd. 1982)
 Les jeunes et la gauche, Presses de Sciences Po, 1979
